--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2009203.835419424</v>
+        <v>-2011923.23656367</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>194.9825937343055</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>73.04466736013794</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>81.99442747520871</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>138.3353289125538</v>
       </c>
       <c r="G4" t="n">
-        <v>112.874937786243</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>6.046975564050357</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>167.7617820786558</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>133.2028868050555</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>134.3059964600182</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>268.1882052866088</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.84239733137883</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>23.04372042007294</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>17.75788774495432</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>33.24617119909785</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>104.5660821043932</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.4093105446496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,16 +2056,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>219.4517041866519</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>196.7716426311333</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>47.08900005058128</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652707</v>
+        <v>56.98118882652652</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3946,7 +3946,7 @@
         <v>42.09059921808193</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352485</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.6965460670935</v>
+        <v>1141.26320568057</v>
       </c>
       <c r="C2" t="n">
-        <v>540.7340291266819</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>540.7340291266819</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>466.9515368437143</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2479.516674384793</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2270.771032990618</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2270.771032990618</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2270.771032990618</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1918.002377720504</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>1918.002377720504</v>
       </c>
       <c r="Y2" t="n">
-        <v>1296.296386131215</v>
+        <v>1527.863045744692</v>
       </c>
     </row>
     <row r="3">
@@ -4389,37 +4389,37 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>496.0729413699639</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014357</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
         <v>2175.502629736639</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1387.807075285521</v>
+        <v>1370.640890613887</v>
       </c>
       <c r="C4" t="n">
-        <v>1387.807075285521</v>
+        <v>1370.640890613887</v>
       </c>
       <c r="D4" t="n">
-        <v>1387.807075285521</v>
+        <v>1370.640890613887</v>
       </c>
       <c r="E4" t="n">
-        <v>1239.893981703128</v>
+        <v>1222.727797031494</v>
       </c>
       <c r="F4" t="n">
-        <v>1239.893981703128</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="G4" t="n">
-        <v>1125.878893030155</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
         <v>977.1399948936612</v>
@@ -4513,25 +4513,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="V4" t="n">
-        <v>2307.654840194269</v>
+        <v>1888.047611548865</v>
       </c>
       <c r="W4" t="n">
-        <v>2018.237670157308</v>
+        <v>1598.630441511905</v>
       </c>
       <c r="X4" t="n">
-        <v>1790.248119259291</v>
+        <v>1370.640890613887</v>
       </c>
       <c r="Y4" t="n">
-        <v>1569.455540115761</v>
+        <v>1370.640890613887</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.346298904865</v>
+        <v>909.233203697441</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2556.231272274852</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2347.485630880677</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2347.485630880677</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2347.485630880677</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2347.485630880677</v>
+        <v>2059.438133998454</v>
       </c>
       <c r="X5" t="n">
-        <v>2347.485630880677</v>
+        <v>1685.972375737374</v>
       </c>
       <c r="Y5" t="n">
-        <v>1957.346298904865</v>
+        <v>1295.833043761563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495379</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2387.128251861729</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>483.824890072889</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>349.276519562732</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1304.154749547471</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1304.154749547471</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>1304.154749547471</v>
       </c>
       <c r="W7" t="n">
-        <v>1114.255484944676</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X7" t="n">
-        <v>886.2659340466589</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>665.4733549031288</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1163.744434193592</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="C8" t="n">
-        <v>1163.744434193592</v>
+        <v>1488.848165855093</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>1130.582467248343</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>744.7942146500984</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>333.8083098604909</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>322.1439636251838</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
@@ -4823,31 +4823,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2511.993472509874</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2511.993472509874</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2258.412411774054</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1927.349524430483</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>1927.349524430483</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X8" t="n">
-        <v>1553.883766169403</v>
+        <v>1857.810682795505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1163.744434193592</v>
+        <v>1857.810682795505</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>423.1489515180659</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>717.8525085495376</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8411572468201</v>
+        <v>837.118033397844</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>668.1818504699371</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>518.0652110576013</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>370.1521174752082</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>223.2621699772979</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>223.2621699772979</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>74.52327184080406</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1096.318224596237</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>841.6337363903502</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W10" t="n">
-        <v>841.6337363903502</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X10" t="n">
-        <v>841.6337363903502</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="Y10" t="n">
-        <v>620.8411572468201</v>
+        <v>837.118033397844</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2413.381092470059</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2230.526258124964</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2010.924793147904</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1721.849566492102</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1467.165078286215</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y16" t="n">
-        <v>783.5579673960132</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>835.5837926935562</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6181,16 +6181,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1017.232257523796</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6215,58 +6215,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319335</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150035</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580126</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345489</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384033</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
         <v>2596.781734931274</v>
@@ -6415,19 +6415,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6604,19 +6604,19 @@
         <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6701,16 +6701,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,25 +6780,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,43 +7093,43 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954162</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038074</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311334</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656415</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,22 +7333,22 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O40" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717214</v>
@@ -7369,13 +7369,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F43" t="n">
         <v>411.221455958011</v>
@@ -7561,19 +7561,19 @@
         <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384017</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,7 +7582,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532431</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7740,13 +7740,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7819,37 +7819,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>73.6605958099978</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>162.0073097921335</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878343</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>35.91627445172458</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>129.7511347056861</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>170.290298036702</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>308.8857027121238</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>151.7682688869522</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,10 +22714,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>7.085719110377426</v>
       </c>
       <c r="G4" t="n">
-        <v>53.43166225856116</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>33.12907551102384</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>147.5715612194348</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.17534280744516</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>21.81301072096144</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>120.1578210480465</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287323</v>
+        <v>64921.82232287325</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642837</v>
@@ -26320,40 +26320,40 @@
         <v>82104.17698642837</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="F2" t="n">
         <v>80714.65996900063</v>
       </c>
       <c r="G2" t="n">
-        <v>80714.65996900058</v>
+        <v>80714.65996900055</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.6599690006</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.65996900064</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642833</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642843</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363186</v>
+        <v>19427.71799363182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26433,31 +26433,31 @@
         <v>7507.36846171968</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
+        <v>15498.2277248132</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15498.22772481312</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481317</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481315</v>
       </c>
-      <c r="K4" t="n">
-        <v>15498.22772481321</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15498.22772481316</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481311</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481312</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>15498.22772481314</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15498.22772481313</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1177810.374012709</v>
+        <v>-1178239.932879298</v>
       </c>
       <c r="C6" t="n">
-        <v>-143947.4590001606</v>
+        <v>-143947.4590001607</v>
       </c>
       <c r="D6" t="n">
         <v>-143947.4590001607</v>
       </c>
       <c r="E6" t="n">
-        <v>-535400.679941172</v>
+        <v>-535435.4178666078</v>
       </c>
       <c r="F6" t="n">
-        <v>-27915.23831662616</v>
+        <v>-27949.97624206185</v>
       </c>
       <c r="G6" t="n">
-        <v>-27915.23831662622</v>
+        <v>-27949.97624206194</v>
       </c>
       <c r="H6" t="n">
-        <v>-27915.23831662617</v>
+        <v>-27949.97624206191</v>
       </c>
       <c r="I6" t="n">
-        <v>-27915.23831662614</v>
+        <v>-27949.97624206191</v>
       </c>
       <c r="J6" t="n">
         <v>-223591.0623959145</v>
       </c>
       <c r="K6" t="n">
+        <v>-36558.16659230019</v>
+      </c>
+      <c r="L6" t="n">
         <v>-36558.16659230021</v>
       </c>
-      <c r="L6" t="n">
-        <v>-36558.16659230023</v>
-      </c>
       <c r="M6" t="n">
-        <v>-169165.4603212267</v>
+        <v>-169165.4603212268</v>
       </c>
       <c r="N6" t="n">
-        <v>-36558.16659230013</v>
+        <v>-36558.1665923002</v>
       </c>
       <c r="O6" t="n">
-        <v>-55985.88458593202</v>
+        <v>-55985.884585932</v>
       </c>
       <c r="P6" t="n">
         <v>-36558.16659230014</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203968</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203983</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.45778792358564</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>99.27698124150984</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>117.405239834744</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>181.4791866387572</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>34.04393429357236</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>86.44269953719376</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>32.83034727579656</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.60981806741555</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>81.75287478382765</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>268.4692663762463</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31534,7 +31534,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166594</v>
@@ -31549,13 +31549,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
@@ -31604,22 +31604,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31671,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
@@ -31686,10 +31686,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31704,13 +31704,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
         <v>0.09187523529024984</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,10 +32072,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>320.9147064709964</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>710.7237876039896</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>726.7533607666132</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,10 +33500,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34144,7 +34144,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>260.2480920534827</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>553.2044093850075</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113666</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>152.3969967825791</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067507</v>
@@ -35182,7 +35182,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949726</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>520.9482342985599</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
@@ -35337,7 +35337,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35346,7 +35346,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
         <v>54.881755458054</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L13" t="n">
         <v>394.3420143191314</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>189.5729943876631</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>568.5897536819714</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>584.6193268445949</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016747</v>
@@ -36762,13 +36762,13 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
         <v>144.6869047919381</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,10 +37716,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37792,7 +37792,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111711</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
